--- a/idis/expdata/10037.xlsx
+++ b/idis/expdata/10037.xlsx
@@ -49,7 +49,7 @@
     <t>%ucor_u</t>
   </si>
   <si>
-    <t>%cor_c</t>
+    <t>%cor_u</t>
   </si>
   <si>
     <t>HERA I and II charm rean.</t>
@@ -1372,17 +1372,8 @@
     <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.17188" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.17188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.17188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.17188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.17188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.17188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.17188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.17188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.17188" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.17188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.17188" style="1" customWidth="1"/>
-    <col min="14" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.17188" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -3361,7 +3352,7 @@
         <v>0.01</v>
       </c>
       <c r="C49" s="5">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="D49" s="6">
         <v>318</v>
